--- a/AG_parts_list.xlsx
+++ b/AG_parts_list.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhuang/Documents/Research/thesis/AG github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhuang/Documents/Research/thesis/AG/AG github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057CEB57-15B9-A542-BC27-2D6E0F87403E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22761DB0-838F-314C-8779-67180EF20B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="3160" windowWidth="28040" windowHeight="15960" xr2:uid="{3398B7C7-01E1-D84B-8F5A-D5B5D2ECAB6C}"/>
+    <workbookView xWindow="2860" yWindow="1380" windowWidth="28040" windowHeight="15960" xr2:uid="{3398B7C7-01E1-D84B-8F5A-D5B5D2ECAB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t xml:space="preserve">custom PCB </t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>total (60 winglets)</t>
+  </si>
+  <si>
+    <t>screw terminals</t>
+  </si>
+  <si>
+    <t>* requires modifications (see image below)</t>
   </si>
 </sst>
 </file>
@@ -350,17 +356,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,6 +383,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB683CA2-CCD1-4740-ABA6-22B77459B8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="8617026"/>
+          <a:ext cx="3213100" cy="2406573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CDD1EB-51E6-2C4A-9784-00D0F7679B07}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,29 +768,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7">
         <f>SUM(F4:F20)</f>
         <v>35.5</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -785,15 +840,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,15 +991,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1114,7 +1169,7 @@
         <v>9.93</v>
       </c>
       <c r="F28">
-        <f>D28*E28</f>
+        <f t="shared" ref="F28:F33" si="2">D28*E28</f>
         <v>79.44</v>
       </c>
     </row>
@@ -1129,7 +1184,7 @@
         <v>4.95</v>
       </c>
       <c r="F29">
-        <f>D29*E29</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
@@ -1144,7 +1199,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="F30">
-        <f>D30*E30</f>
+        <f t="shared" si="2"/>
         <v>108.68</v>
       </c>
     </row>
@@ -1159,7 +1214,7 @@
         <v>3.5</v>
       </c>
       <c r="F31">
-        <f>D31*E31</f>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
     </row>
@@ -1174,7 +1229,7 @@
         <v>4.68</v>
       </c>
       <c r="F32">
-        <f>D32*E32</f>
+        <f t="shared" si="2"/>
         <v>37.44</v>
       </c>
     </row>
@@ -1189,7 +1244,7 @@
         <v>5.25</v>
       </c>
       <c r="F33">
-        <f>D33*E33</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -1226,7 +1281,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
@@ -1244,7 +1299,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="s">
@@ -1261,14 +1316,29 @@
         <v>168</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="6">
         <f>60*F2+F21+F34</f>
         <v>3439.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1279,5 +1349,6 @@
     <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>